--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/10/seed2/result_data_KNN.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.302</v>
+        <v>-21.371</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.746</v>
+        <v>-20.88</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.416</v>
+        <v>-21.368</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.414</v>
+        <v>-21.937</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
